--- a/trunk/techreports/phd-assessment/ics-assessment/cost-spreadsheets/PhD in ICS 97-05 (REVISED 3).xlsx
+++ b/trunk/techreports/phd-assessment/ics-assessment/cost-spreadsheets/PhD in ICS 97-05 (REVISED 3).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="15225" windowHeight="8595"/>
+    <workbookView xWindow="10540" yWindow="5440" windowWidth="22100" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -212,7 +217,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Fringe</t>
     </r>
@@ -234,7 +238,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Fringe/SSH</t>
     </r>
@@ -265,7 +268,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>.5 FTE.</t>
     </r>
@@ -293,7 +295,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> each Fall semester.  Located at url:  </t>
     </r>
@@ -324,7 +325,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>.  Add the SSH for the Fall and Spring reports to obtain the annual SSH. This is all SSH taught by the program, including to non-majors.</t>
     </r>
@@ -364,7 +364,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Fringe for Lecturers who are &lt; .5 FTE based on FTE directly related to the program.  Add negotiated collective bargaining increases and 4% per year for inflation thereafter.</t>
     </r>
@@ -434,7 +433,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> non instructional expenditure/ssh + systemwide support  – organized research (UHM only) as provided by UH Expenditure Report  (http://www.hawaii.edu/budget/expend.html )  *Formula for column D: =IF(OR(D37&gt;0,D38&gt;0,D39&gt;0),D37+D38-D39,"")</t>
     </r>
@@ -456,7 +454,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Fringe (automated calculation):  Direct salary cost for all faculty and lecturers teaching in the program. *Formula for column D: =IF(OR(D32&lt;&gt;"",D34&lt;&gt;""),D32+D34,"")</t>
     </r>
@@ -493,7 +490,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Fringe of Full Time Faculty and Lecturers who are </t>
     </r>
@@ -510,7 +506,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> .5 FTE based on FTE directly related to the program.  Add negotiated collective bargaining increases and 4% per year for inflation thereafter. </t>
     </r>
@@ -532,7 +527,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Fringe/SSH:   (K2 + K4) / B     *Formula for column D: =IF((D10&lt;&gt;""),(SUM(D33,D35)/D10,"")</t>
     </r>
@@ -577,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
@@ -585,7 +579,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -660,214 +654,214 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,116 +869,116 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,25 +1170,22 @@
     <xf numFmtId="42" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1215,6 +1206,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1510,27 +1504,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="13.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" ht="13">
       <c r="A1" s="72" t="s">
         <v>74</v>
       </c>
@@ -1544,26 +1538,26 @@
       <c r="A4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="68" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1">
+    <row r="6" spans="1:11" ht="13" thickBot="1">
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.5" thickBot="1">
+    <row r="7" spans="1:11" ht="13" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -1618,7 +1612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.5" thickBot="1">
+    <row r="8" spans="1:11" ht="13" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1">
+    <row r="10" spans="1:11" ht="13" thickBot="1">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1698,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1">
+    <row r="12" spans="1:11" ht="13" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" thickBot="1">
+    <row r="18" spans="1:11" ht="13" thickBot="1">
       <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
@@ -1931,7 +1925,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" thickBot="1">
+    <row r="20" spans="1:11" ht="13" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2042,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" thickBot="1">
+    <row r="24" spans="1:11" ht="13" thickBot="1">
       <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +2074,7 @@
         <v>530364</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5" thickBot="1">
+    <row r="25" spans="1:11" ht="13" thickBot="1">
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2091,11 +2085,11 @@
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="85"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="58">
         <f>IF(AND(D18&lt;&gt;"",D24&lt;&gt;""),D18-D24,"")</f>
         <v>-175334</v>
@@ -2162,7 +2156,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="13.5" thickBot="1">
+    <row r="30" spans="1:11" ht="13" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>453.30786026200872</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.5" thickBot="1">
+    <row r="41" spans="1:11" ht="13" thickBot="1">
       <c r="B41" s="9" t="s">
         <v>46</v>
       </c>
@@ -2557,7 +2551,7 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="13.5" thickBot="1">
+    <row r="43" spans="1:11" ht="13" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>123.30786026200873</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5" thickBot="1">
+    <row r="45" spans="1:11" ht="13" thickBot="1">
       <c r="B45" s="9" t="s">
         <v>52</v>
       </c>
@@ -2638,15 +2632,15 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="13.5" thickBot="1">
+    <row r="46" spans="1:11" ht="13" thickBot="1">
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="D46" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="87"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="61"/>
       <c r="G46" s="61"/>
       <c r="H46" s="61"/>
@@ -2667,12 +2661,12 @@
       <c r="K47" s="61"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="89"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="88"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="12" t="s">
@@ -2680,313 +2674,313 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
     </row>
     <row r="52" spans="1:11" ht="25.5" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
     </row>
     <row r="53" spans="1:11" ht="17.25" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="A54" s="10"/>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="A55" s="10"/>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
     </row>
     <row r="56" spans="1:11" ht="26.25" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
     </row>
     <row r="57" spans="1:11" ht="25.5" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
     </row>
     <row r="60" spans="1:11" ht="25.5" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
     </row>
     <row r="62" spans="1:11" ht="25.5" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
     </row>
     <row r="64" spans="1:11" ht="26.25" customHeight="1">
       <c r="A64" s="10"/>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="81"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="10"/>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="81"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
     </row>
     <row r="66" spans="1:12" ht="26.25" customHeight="1">
       <c r="A66" s="10"/>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="10"/>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="81"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
     </row>
     <row r="68" spans="1:12" ht="25.5" customHeight="1">
       <c r="A68" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
     </row>
     <row r="70" spans="1:12">
       <c r="B70" s="9" t="s">
@@ -3091,52 +3085,52 @@
       <c r="A83" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="I83" s="78"/>
-      <c r="J83" s="78"/>
-      <c r="K83" s="78"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
+      <c r="K83" s="81"/>
     </row>
     <row r="84" spans="1:11" ht="25.5" customHeight="1">
       <c r="A84" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="78"/>
-      <c r="H84" s="78"/>
-      <c r="I84" s="78"/>
-      <c r="J84" s="78"/>
-      <c r="K84" s="78"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="81"/>
+      <c r="J84" s="81"/>
+      <c r="K84" s="81"/>
     </row>
     <row r="85" spans="1:11" ht="25.5" customHeight="1">
       <c r="A85" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
-      <c r="J85" s="78"/>
-      <c r="K85" s="78"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="81"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
@@ -3146,13 +3140,15 @@
   </sheetData>
   <sheetProtection password="C93D" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="27">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B85:K85"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="B83:K83"/>
+    <mergeCell ref="B84:K84"/>
+    <mergeCell ref="B64:K64"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B67:K67"/>
     <mergeCell ref="B61:K61"/>
     <mergeCell ref="B62:K62"/>
     <mergeCell ref="B52:K52"/>
@@ -3164,23 +3160,26 @@
     <mergeCell ref="B55:K55"/>
     <mergeCell ref="B60:K60"/>
     <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B85:K85"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B68:K68"/>
-    <mergeCell ref="B83:K83"/>
-    <mergeCell ref="B84:K84"/>
-    <mergeCell ref="B64:K64"/>
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="B48:E48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="73" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="48" max="16383" man="1"/>
   </rowBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>